--- a/sprites.xlsx
+++ b/sprites.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victor\Documents\GitHub\pokemon_metagame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C86F704-AEF2-4124-B71C-681A382F77AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90600D66-9E6B-45BC-BE22-CB9FD2404E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{62672BA4-6E7E-481A-B83B-EE2C9AD08E2A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>Amoonguss</t>
   </si>
@@ -288,62 +288,100 @@
     <t>Pokémon</t>
   </si>
   <si>
-    <t>Sprite</t>
-  </si>
-  <si>
-    <t>C:\Users\victor\Documents\GitHub\pokemon_metagame\sprites\amoonguss.png</t>
-  </si>
-  <si>
-    <t>C:\Users\victor\Documents\GitHub\pokemon_metagame\sprites\annihilape.png</t>
-  </si>
-  <si>
-    <t>C:\Users\victor\Documents\GitHub\pokemon_metagame\sprites\flutter-mane.png</t>
-  </si>
-  <si>
-    <t>C:\Users\victor\Documents\GitHub\pokemon_metagame\sprites\gouging-fire.png</t>
-  </si>
-  <si>
-    <t>C:\Users\victor\Documents\GitHub\pokemon_metagame\sprites\great-tusk.png</t>
-  </si>
-  <si>
-    <t>C:\Users\victor\Documents\GitHub\pokemon_metagame\sprites\iron-boulder.png</t>
-  </si>
-  <si>
-    <t>C:\Users\victor\Documents\GitHub\pokemon_metagame\sprites\iron-bundle.png</t>
-  </si>
-  <si>
-    <t>C:\Users\victor\Documents\GitHub\pokemon_metagame\sprites\iron-crown.png</t>
-  </si>
-  <si>
-    <t>C:\Users\victor\Documents\GitHub\pokemon_metagame\sprites\iron-hands.png</t>
-  </si>
-  <si>
-    <t>C:\Users\victor\Documents\GitHub\pokemon_metagame\sprites\iron-jugulis.png</t>
-  </si>
-  <si>
-    <t>C:\Users\victor\Documents\GitHub\pokemon_metagame\sprites\iron-moth.png</t>
-  </si>
-  <si>
-    <t>C:\Users\victor\Documents\GitHub\pokemon_metagame\sprites\raging-bolt.png</t>
-  </si>
-  <si>
-    <t>C:\Users\victor\Documents\GitHub\pokemon_metagame\sprites\roaring-moon.png</t>
-  </si>
-  <si>
-    <t>C:\Users\victor\Documents\GitHub\pokemon_metagame\sprites\scream-tail.png</t>
-  </si>
-  <si>
-    <t>C:\Users\victor\Documents\GitHub\pokemon_metagame\sprites\walking-wake.png</t>
+    <t>https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/arcanine-hisuian.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/articuno-galarian.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/flutter-mane.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/gouging-fire.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/great-tusk.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/indeedee-female.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/iron-boulder.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/iron-bundle.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/iron-crown.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/iron-hands.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/iron-jugulis.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/iron-moth.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/landorus-incarnate.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/lilligant-hisuian.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/ninetales-alolan.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/raging-bolt.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/roaring-moon.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/scream-tail.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/tatsugiri-curly.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/thundurus-incarnate.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/home/normal/1x/urshifu-single-strike.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/home/normal/1x/urshifu-rapid-strike.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/zapdos-galarian.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/weezing-galarian.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/walking-wake.png</t>
+  </si>
+  <si>
+    <t>Sprites</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -366,13 +404,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -688,13 +729,14 @@
   <dimension ref="A1:B84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.28515625" customWidth="1"/>
     <col min="2" max="2" width="79.7109375" customWidth="1"/>
+    <col min="3" max="3" width="75.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -702,23 +744,25 @@
         <v>83</v>
       </c>
       <c r="B1" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>85</v>
+      <c r="B2" t="str">
+        <f>"https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/" &amp;LOWER(A2)&amp;".png"</f>
+        <v>https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/amoonguss.png</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>86</v>
+      <c r="B3" t="str">
+        <f>"https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/" &amp;LOWER(A3)&amp;".png"</f>
+        <v>https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/annihilape.png</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -726,17 +770,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="str">
-        <f>"C:\Users\victor\Documents\GitHub\pokemon_metagame\sprites\" &amp; LOWER(A4) &amp; ".png"</f>
-        <v>C:\Users\victor\Documents\GitHub\pokemon_metagame\sprites\araquanid.png</v>
+        <f>"https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/" &amp;LOWER(A4)&amp;".png"</f>
+        <v>https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/araquanid.png</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="str">
-        <f t="shared" ref="B5:B68" si="0">"C:\Users\victor\Documents\GitHub\pokemon_metagame\sprites\" &amp; LOWER(A5) &amp; ".png"</f>
-        <v>C:\Users\victor\Documents\GitHub\pokemon_metagame\sprites\arcanine-hisui.png</v>
+      <c r="B5" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -744,8 +787,8 @@
         <v>4</v>
       </c>
       <c r="B6" t="str">
-        <f t="shared" si="0"/>
-        <v>C:\Users\victor\Documents\GitHub\pokemon_metagame\sprites\archaludon.png</v>
+        <f>"https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/" &amp;LOWER(A6)&amp;".png"</f>
+        <v>https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/archaludon.png</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -753,8 +796,8 @@
         <v>5</v>
       </c>
       <c r="B7" t="str">
-        <f t="shared" si="0"/>
-        <v>C:\Users\victor\Documents\GitHub\pokemon_metagame\sprites\armarouge.png</v>
+        <f>"https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/" &amp;LOWER(A7)&amp;".png"</f>
+        <v>https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/armarouge.png</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -762,17 +805,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="str">
-        <f t="shared" si="0"/>
-        <v>C:\Users\victor\Documents\GitHub\pokemon_metagame\sprites\articuno.png</v>
+        <f>"https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/" &amp;LOWER(A8)&amp;".png"</f>
+        <v>https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/articuno.png</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="str">
-        <f t="shared" si="0"/>
-        <v>C:\Users\victor\Documents\GitHub\pokemon_metagame\sprites\articuno-galar.png</v>
+      <c r="B9" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -780,8 +822,8 @@
         <v>8</v>
       </c>
       <c r="B10" t="str">
-        <f t="shared" si="0"/>
-        <v>C:\Users\victor\Documents\GitHub\pokemon_metagame\sprites\basculegion.png</v>
+        <f>"https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/" &amp;LOWER(A10)&amp;".png"</f>
+        <v>https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/basculegion.png</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -789,8 +831,8 @@
         <v>9</v>
       </c>
       <c r="B11" t="str">
-        <f t="shared" si="0"/>
-        <v>C:\Users\victor\Documents\GitHub\pokemon_metagame\sprites\baxcalibur.png</v>
+        <f>"https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/" &amp;LOWER(A11)&amp;".png"</f>
+        <v>https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/baxcalibur.png</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -798,8 +840,8 @@
         <v>10</v>
       </c>
       <c r="B12" t="str">
-        <f t="shared" si="0"/>
-        <v>C:\Users\victor\Documents\GitHub\pokemon_metagame\sprites\bronzong.png</v>
+        <f>"https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/" &amp;LOWER(A12)&amp;".png"</f>
+        <v>https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/bronzong.png</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -807,8 +849,8 @@
         <v>11</v>
       </c>
       <c r="B13" t="str">
-        <f t="shared" si="0"/>
-        <v>C:\Users\victor\Documents\GitHub\pokemon_metagame\sprites\chi-yu.png</v>
+        <f>"https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/" &amp;LOWER(A13)&amp;".png"</f>
+        <v>https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/chi-yu.png</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -816,8 +858,8 @@
         <v>12</v>
       </c>
       <c r="B14" t="str">
-        <f t="shared" si="0"/>
-        <v>C:\Users\victor\Documents\GitHub\pokemon_metagame\sprites\chien-pao.png</v>
+        <f>"https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/" &amp;LOWER(A14)&amp;".png"</f>
+        <v>https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/chien-pao.png</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -825,8 +867,8 @@
         <v>13</v>
       </c>
       <c r="B15" t="str">
-        <f t="shared" si="0"/>
-        <v>C:\Users\victor\Documents\GitHub\pokemon_metagame\sprites\clefairy.png</v>
+        <f>"https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/" &amp;LOWER(A15)&amp;".png"</f>
+        <v>https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/clefairy.png</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -834,8 +876,8 @@
         <v>14</v>
       </c>
       <c r="B16" t="str">
-        <f t="shared" si="0"/>
-        <v>C:\Users\victor\Documents\GitHub\pokemon_metagame\sprites\cresselia.png</v>
+        <f>"https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/" &amp;LOWER(A16)&amp;".png"</f>
+        <v>https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/cresselia.png</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -843,8 +885,8 @@
         <v>15</v>
       </c>
       <c r="B17" t="str">
-        <f t="shared" si="0"/>
-        <v>C:\Users\victor\Documents\GitHub\pokemon_metagame\sprites\dondozo.png</v>
+        <f>"https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/" &amp;LOWER(A17)&amp;".png"</f>
+        <v>https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/dondozo.png</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -852,8 +894,8 @@
         <v>16</v>
       </c>
       <c r="B18" t="str">
-        <f t="shared" si="0"/>
-        <v>C:\Users\victor\Documents\GitHub\pokemon_metagame\sprites\dragonite.png</v>
+        <f>"https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/" &amp;LOWER(A18)&amp;".png"</f>
+        <v>https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/dragonite.png</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -861,8 +903,8 @@
         <v>17</v>
       </c>
       <c r="B19" t="str">
-        <f t="shared" si="0"/>
-        <v>C:\Users\victor\Documents\GitHub\pokemon_metagame\sprites\dusclops.png</v>
+        <f>"https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/" &amp;LOWER(A19)&amp;".png"</f>
+        <v>https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/dusclops.png</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -870,8 +912,8 @@
         <v>18</v>
       </c>
       <c r="B20" t="str">
-        <f t="shared" si="0"/>
-        <v>C:\Users\victor\Documents\GitHub\pokemon_metagame\sprites\enamorus-therian.png</v>
+        <f>"https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/" &amp;LOWER(A20)&amp;".png"</f>
+        <v>https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/enamorus-therian.png</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -879,8 +921,8 @@
         <v>19</v>
       </c>
       <c r="B21" t="str">
-        <f t="shared" si="0"/>
-        <v>C:\Users\victor\Documents\GitHub\pokemon_metagame\sprites\entei.png</v>
+        <f>"https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/" &amp;LOWER(A21)&amp;".png"</f>
+        <v>https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/entei.png</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -888,16 +930,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="str">
-        <f t="shared" si="0"/>
-        <v>C:\Users\victor\Documents\GitHub\pokemon_metagame\sprites\farigiraf.png</v>
+        <f>"https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/" &amp;LOWER(A22)&amp;".png"</f>
+        <v>https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/farigiraf.png</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
-        <v>87</v>
+      <c r="B23" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -905,8 +947,8 @@
         <v>22</v>
       </c>
       <c r="B24" t="str">
-        <f t="shared" si="0"/>
-        <v>C:\Users\victor\Documents\GitHub\pokemon_metagame\sprites\frosmoth.png</v>
+        <f>"https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/" &amp;LOWER(A24)&amp;".png"</f>
+        <v>https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/frosmoth.png</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -914,8 +956,8 @@
         <v>23</v>
       </c>
       <c r="B25" t="str">
-        <f t="shared" si="0"/>
-        <v>C:\Users\victor\Documents\GitHub\pokemon_metagame\sprites\gallade.png</v>
+        <f>"https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/" &amp;LOWER(A25)&amp;".png"</f>
+        <v>https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/gallade.png</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -923,8 +965,8 @@
         <v>24</v>
       </c>
       <c r="B26" t="str">
-        <f t="shared" si="0"/>
-        <v>C:\Users\victor\Documents\GitHub\pokemon_metagame\sprites\garchomp.png</v>
+        <f>"https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/" &amp;LOWER(A26)&amp;".png"</f>
+        <v>https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/garchomp.png</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -932,8 +974,8 @@
         <v>25</v>
       </c>
       <c r="B27" t="str">
-        <f t="shared" si="0"/>
-        <v>C:\Users\victor\Documents\GitHub\pokemon_metagame\sprites\gholdengo.png</v>
+        <f>"https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/" &amp;LOWER(A27)&amp;".png"</f>
+        <v>https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/gholdengo.png</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -941,8 +983,8 @@
         <v>26</v>
       </c>
       <c r="B28" t="str">
-        <f t="shared" si="0"/>
-        <v>C:\Users\victor\Documents\GitHub\pokemon_metagame\sprites\glastrier.png</v>
+        <f>"https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/" &amp;LOWER(A28)&amp;".png"</f>
+        <v>https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/glastrier.png</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -950,24 +992,24 @@
         <v>27</v>
       </c>
       <c r="B29" t="str">
-        <f t="shared" si="0"/>
-        <v>C:\Users\victor\Documents\GitHub\pokemon_metagame\sprites\glimmora.png</v>
+        <f>"https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/" &amp;LOWER(A29)&amp;".png"</f>
+        <v>https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/glimmora.png</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
-        <v>88</v>
+      <c r="B30" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
-      <c r="B31" t="s">
-        <v>89</v>
+      <c r="B31" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -975,8 +1017,8 @@
         <v>30</v>
       </c>
       <c r="B32" t="str">
-        <f t="shared" si="0"/>
-        <v>C:\Users\victor\Documents\GitHub\pokemon_metagame\sprites\grimmsnarl.png</v>
+        <f>"https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/" &amp;LOWER(A32)&amp;".png"</f>
+        <v>https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/grimmsnarl.png</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -984,8 +1026,8 @@
         <v>31</v>
       </c>
       <c r="B33" t="str">
-        <f t="shared" si="0"/>
-        <v>C:\Users\victor\Documents\GitHub\pokemon_metagame\sprites\gyarados.png</v>
+        <f>"https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/" &amp;LOWER(A33)&amp;".png"</f>
+        <v>https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/gyarados.png</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -993,8 +1035,8 @@
         <v>32</v>
       </c>
       <c r="B34" t="str">
-        <f t="shared" si="0"/>
-        <v>C:\Users\victor\Documents\GitHub\pokemon_metagame\sprites\hatterene.png</v>
+        <f>"https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/" &amp;LOWER(A34)&amp;".png"</f>
+        <v>https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/hatterene.png</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -1002,8 +1044,8 @@
         <v>33</v>
       </c>
       <c r="B35" t="str">
-        <f t="shared" si="0"/>
-        <v>C:\Users\victor\Documents\GitHub\pokemon_metagame\sprites\heatran.png</v>
+        <f>"https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/" &amp;LOWER(A35)&amp;".png"</f>
+        <v>https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/heatran.png</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1011,24 +1053,23 @@
         <v>34</v>
       </c>
       <c r="B36" t="str">
-        <f t="shared" si="0"/>
-        <v>C:\Users\victor\Documents\GitHub\pokemon_metagame\sprites\incineroar.png</v>
+        <f>"https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/" &amp;LOWER(A36)&amp;".png"</f>
+        <v>https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/incineroar.png</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
-      <c r="B37" t="str">
-        <f t="shared" si="0"/>
-        <v>C:\Users\victor\Documents\GitHub\pokemon_metagame\sprites\indeedee-f.png</v>
+      <c r="B37" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="1" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1036,7 +1077,7 @@
       <c r="A39" t="s">
         <v>37</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="1" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1044,7 +1085,7 @@
       <c r="A40" t="s">
         <v>38</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="1" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1052,7 +1093,7 @@
       <c r="A41" t="s">
         <v>39</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="1" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1060,7 +1101,7 @@
       <c r="A42" t="s">
         <v>40</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="1" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1068,7 +1109,7 @@
       <c r="A43" t="s">
         <v>41</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="1" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1077,8 +1118,8 @@
         <v>42</v>
       </c>
       <c r="B44" t="str">
-        <f t="shared" si="0"/>
-        <v>C:\Users\victor\Documents\GitHub\pokemon_metagame\sprites\kingambit.png</v>
+        <f>"https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/" &amp;LOWER(A44)&amp;".png"</f>
+        <v>https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/kingambit.png</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -1086,17 +1127,16 @@
         <v>43</v>
       </c>
       <c r="B45" t="str">
-        <f t="shared" si="0"/>
-        <v>C:\Users\victor\Documents\GitHub\pokemon_metagame\sprites\kommo-o.png</v>
+        <f>"https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/" &amp;LOWER(A45)&amp;".png"</f>
+        <v>https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/kommo-o.png</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>44</v>
       </c>
-      <c r="B46" t="str">
-        <f t="shared" si="0"/>
-        <v>C:\Users\victor\Documents\GitHub\pokemon_metagame\sprites\landorus.png</v>
+      <c r="B46" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -1104,8 +1144,8 @@
         <v>45</v>
       </c>
       <c r="B47" t="str">
-        <f t="shared" si="0"/>
-        <v>C:\Users\victor\Documents\GitHub\pokemon_metagame\sprites\landorus-therian.png</v>
+        <f>"https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/" &amp;LOWER(A47)&amp;".png"</f>
+        <v>https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/landorus-therian.png</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -1113,17 +1153,16 @@
         <v>46</v>
       </c>
       <c r="B48" t="str">
-        <f t="shared" si="0"/>
-        <v>C:\Users\victor\Documents\GitHub\pokemon_metagame\sprites\latios.png</v>
+        <f>"https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/" &amp;LOWER(A48)&amp;".png"</f>
+        <v>https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/latios.png</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>47</v>
       </c>
-      <c r="B49" t="str">
-        <f t="shared" si="0"/>
-        <v>C:\Users\victor\Documents\GitHub\pokemon_metagame\sprites\lilligant-hisui.png</v>
+      <c r="B49" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -1131,8 +1170,8 @@
         <v>48</v>
       </c>
       <c r="B50" t="str">
-        <f t="shared" si="0"/>
-        <v>C:\Users\victor\Documents\GitHub\pokemon_metagame\sprites\magmar.png</v>
+        <f>"https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/" &amp;LOWER(A50)&amp;".png"</f>
+        <v>https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/magmar.png</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -1140,17 +1179,16 @@
         <v>49</v>
       </c>
       <c r="B51" t="str">
-        <f t="shared" si="0"/>
-        <v>C:\Users\victor\Documents\GitHub\pokemon_metagame\sprites\metagross.png</v>
+        <f>"https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/" &amp;LOWER(A51)&amp;".png"</f>
+        <v>https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/metagross.png</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>50</v>
       </c>
-      <c r="B52" t="str">
-        <f t="shared" si="0"/>
-        <v>C:\Users\victor\Documents\GitHub\pokemon_metagame\sprites\ninetales-alola.png</v>
+      <c r="B52" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -1158,8 +1196,8 @@
         <v>51</v>
       </c>
       <c r="B53" t="str">
-        <f t="shared" si="0"/>
-        <v>C:\Users\victor\Documents\GitHub\pokemon_metagame\sprites\ogerpon.png</v>
+        <f>"https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/" &amp;LOWER(A53)&amp;".png"</f>
+        <v>https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/ogerpon.png</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -1167,8 +1205,8 @@
         <v>52</v>
       </c>
       <c r="B54" t="str">
-        <f t="shared" si="0"/>
-        <v>C:\Users\victor\Documents\GitHub\pokemon_metagame\sprites\ogerpon-cornerstone.png</v>
+        <f>"https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/" &amp;LOWER(A54)&amp;".png"</f>
+        <v>https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/ogerpon-cornerstone.png</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -1176,8 +1214,8 @@
         <v>53</v>
       </c>
       <c r="B55" t="str">
-        <f t="shared" si="0"/>
-        <v>C:\Users\victor\Documents\GitHub\pokemon_metagame\sprites\ogerpon-hearthflame.png</v>
+        <f>"https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/" &amp;LOWER(A55)&amp;".png"</f>
+        <v>https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/ogerpon-hearthflame.png</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -1185,8 +1223,8 @@
         <v>54</v>
       </c>
       <c r="B56" t="str">
-        <f t="shared" si="0"/>
-        <v>C:\Users\victor\Documents\GitHub\pokemon_metagame\sprites\ogerpon-wellspring.png</v>
+        <f>"https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/" &amp;LOWER(A56)&amp;".png"</f>
+        <v>https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/ogerpon-wellspring.png</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -1194,8 +1232,8 @@
         <v>55</v>
       </c>
       <c r="B57" t="str">
-        <f t="shared" si="0"/>
-        <v>C:\Users\victor\Documents\GitHub\pokemon_metagame\sprites\okidogi.png</v>
+        <f>"https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/" &amp;LOWER(A57)&amp;".png"</f>
+        <v>https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/okidogi.png</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -1203,8 +1241,8 @@
         <v>56</v>
       </c>
       <c r="B58" t="str">
-        <f t="shared" si="0"/>
-        <v>C:\Users\victor\Documents\GitHub\pokemon_metagame\sprites\oranguru.png</v>
+        <f>"https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/" &amp;LOWER(A58)&amp;".png"</f>
+        <v>https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/oranguru.png</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -1212,8 +1250,8 @@
         <v>57</v>
       </c>
       <c r="B59" t="str">
-        <f t="shared" si="0"/>
-        <v>C:\Users\victor\Documents\GitHub\pokemon_metagame\sprites\pelipper.png</v>
+        <f>"https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/" &amp;LOWER(A59)&amp;".png"</f>
+        <v>https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/pelipper.png</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -1221,16 +1259,16 @@
         <v>58</v>
       </c>
       <c r="B60" t="str">
-        <f t="shared" si="0"/>
-        <v>C:\Users\victor\Documents\GitHub\pokemon_metagame\sprites\porygon2.png</v>
+        <f>"https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/" &amp;LOWER(A60)&amp;".png"</f>
+        <v>https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/porygon2.png</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>59</v>
       </c>
-      <c r="B61" t="s">
-        <v>96</v>
+      <c r="B61" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -1238,8 +1276,8 @@
         <v>60</v>
       </c>
       <c r="B62" t="str">
-        <f t="shared" si="0"/>
-        <v>C:\Users\victor\Documents\GitHub\pokemon_metagame\sprites\regidrago.png</v>
+        <f>"https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/" &amp;LOWER(A62)&amp;".png"</f>
+        <v>https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/regidrago.png</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -1247,8 +1285,8 @@
         <v>61</v>
       </c>
       <c r="B63" t="str">
-        <f t="shared" si="0"/>
-        <v>C:\Users\victor\Documents\GitHub\pokemon_metagame\sprites\regieleki.png</v>
+        <f>"https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/" &amp;LOWER(A63)&amp;".png"</f>
+        <v>https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/regieleki.png</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -1256,24 +1294,24 @@
         <v>62</v>
       </c>
       <c r="B64" t="str">
-        <f t="shared" si="0"/>
-        <v>C:\Users\victor\Documents\GitHub\pokemon_metagame\sprites\rillaboom.png</v>
+        <f>"https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/" &amp;LOWER(A64)&amp;".png"</f>
+        <v>https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/rillaboom.png</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>63</v>
       </c>
-      <c r="B65" t="s">
-        <v>97</v>
+      <c r="B65" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>64</v>
       </c>
-      <c r="B66" t="s">
-        <v>98</v>
+      <c r="B66" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -1281,8 +1319,8 @@
         <v>65</v>
       </c>
       <c r="B67" t="str">
-        <f t="shared" si="0"/>
-        <v>C:\Users\victor\Documents\GitHub\pokemon_metagame\sprites\smeargle.png</v>
+        <f>"https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/" &amp;LOWER(A67)&amp;".png"</f>
+        <v>https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/smeargle.png</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -1290,17 +1328,16 @@
         <v>66</v>
       </c>
       <c r="B68" t="str">
-        <f t="shared" si="0"/>
-        <v>C:\Users\victor\Documents\GitHub\pokemon_metagame\sprites\sylveon.png</v>
+        <f>"https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/" &amp;LOWER(A68)&amp;".png"</f>
+        <v>https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/sylveon.png</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>67</v>
       </c>
-      <c r="B69" t="str">
-        <f t="shared" ref="B69:B84" si="1">"C:\Users\victor\Documents\GitHub\pokemon_metagame\sprites\" &amp; LOWER(A69) &amp; ".png"</f>
-        <v>C:\Users\victor\Documents\GitHub\pokemon_metagame\sprites\tatsugiri.png</v>
+      <c r="B69" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -1308,17 +1345,16 @@
         <v>68</v>
       </c>
       <c r="B70" t="str">
-        <f t="shared" si="1"/>
-        <v>C:\Users\victor\Documents\GitHub\pokemon_metagame\sprites\tatsugiri-stretchy.png</v>
+        <f>"https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/" &amp;LOWER(A70)&amp;".png"</f>
+        <v>https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/tatsugiri-stretchy.png</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>69</v>
       </c>
-      <c r="B71" t="str">
-        <f t="shared" si="1"/>
-        <v>C:\Users\victor\Documents\GitHub\pokemon_metagame\sprites\thundurus.png</v>
+      <c r="B71" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -1326,8 +1362,8 @@
         <v>70</v>
       </c>
       <c r="B72" t="str">
-        <f t="shared" si="1"/>
-        <v>C:\Users\victor\Documents\GitHub\pokemon_metagame\sprites\ting-lu.png</v>
+        <f>"https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/" &amp;LOWER(A72)&amp;".png"</f>
+        <v>https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/ting-lu.png</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -1335,8 +1371,8 @@
         <v>71</v>
       </c>
       <c r="B73" t="str">
-        <f t="shared" si="1"/>
-        <v>C:\Users\victor\Documents\GitHub\pokemon_metagame\sprites\torkoal.png</v>
+        <f>"https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/" &amp;LOWER(A73)&amp;".png"</f>
+        <v>https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/torkoal.png</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -1344,8 +1380,8 @@
         <v>72</v>
       </c>
       <c r="B74" t="str">
-        <f t="shared" si="1"/>
-        <v>C:\Users\victor\Documents\GitHub\pokemon_metagame\sprites\tornadus.png</v>
+        <f>"https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/" &amp;LOWER(A74)&amp;".png"</f>
+        <v>https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/tornadus.png</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -1353,8 +1389,8 @@
         <v>73</v>
       </c>
       <c r="B75" t="str">
-        <f t="shared" si="1"/>
-        <v>C:\Users\victor\Documents\GitHub\pokemon_metagame\sprites\ursaluna.png</v>
+        <f>"https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/" &amp;LOWER(A75)&amp;".png"</f>
+        <v>https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/ursaluna.png</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -1362,26 +1398,24 @@
         <v>74</v>
       </c>
       <c r="B76" t="str">
-        <f t="shared" si="1"/>
-        <v>C:\Users\victor\Documents\GitHub\pokemon_metagame\sprites\ursaluna-bloodmoon.png</v>
+        <f>"https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/" &amp;LOWER(A76)&amp;".png"</f>
+        <v>https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/ursaluna-bloodmoon.png</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>75</v>
       </c>
-      <c r="B77" t="str">
-        <f t="shared" si="1"/>
-        <v>C:\Users\victor\Documents\GitHub\pokemon_metagame\sprites\urshifu.png</v>
+      <c r="B77" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>76</v>
       </c>
-      <c r="B78" t="str">
-        <f t="shared" si="1"/>
-        <v>C:\Users\victor\Documents\GitHub\pokemon_metagame\sprites\urshifu-rapid-strike.png</v>
+      <c r="B78" s="1" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -1389,8 +1423,8 @@
         <v>77</v>
       </c>
       <c r="B79" t="str">
-        <f t="shared" si="1"/>
-        <v>C:\Users\victor\Documents\GitHub\pokemon_metagame\sprites\venusaur.png</v>
+        <f>"https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/" &amp;LOWER(A79)&amp;".png"</f>
+        <v>https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/venusaur.png</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -1398,25 +1432,24 @@
         <v>78</v>
       </c>
       <c r="B80" t="str">
-        <f t="shared" si="1"/>
-        <v>C:\Users\victor\Documents\GitHub\pokemon_metagame\sprites\volcarona.png</v>
+        <f>"https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/" &amp;LOWER(A80)&amp;".png"</f>
+        <v>https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/volcarona.png</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>79</v>
       </c>
-      <c r="B81" t="s">
-        <v>99</v>
+      <c r="B81" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>80</v>
       </c>
-      <c r="B82" t="str">
-        <f t="shared" si="1"/>
-        <v>C:\Users\victor\Documents\GitHub\pokemon_metagame\sprites\weezing-galar.png</v>
+      <c r="B82" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -1424,20 +1457,45 @@
         <v>81</v>
       </c>
       <c r="B83" t="str">
-        <f t="shared" si="1"/>
-        <v>C:\Users\victor\Documents\GitHub\pokemon_metagame\sprites\whimsicott.png</v>
+        <f>"https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/" &amp;LOWER(A83)&amp;".png"</f>
+        <v>https://img.pokemondb.net/sprites/scarlet-violet/normal/1x/whimsicott.png</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>82</v>
       </c>
-      <c r="B84" t="str">
-        <f t="shared" si="1"/>
-        <v>C:\Users\victor\Documents\GitHub\pokemon_metagame\sprites\zapdos-galar.png</v>
+      <c r="B84" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B9" r:id="rId1" xr:uid="{E2E1EC9C-FE94-4703-B90B-B9B0DBD5B9D4}"/>
+    <hyperlink ref="B23" r:id="rId2" xr:uid="{66370C4A-568D-4241-B4A7-C21E485FDBEE}"/>
+    <hyperlink ref="B30" r:id="rId3" xr:uid="{FE0E7D87-F7AD-40CB-9EB2-969D0AD641A7}"/>
+    <hyperlink ref="B31" r:id="rId4" xr:uid="{05D7B0A5-481B-42B8-AED2-AD1A11FB0A56}"/>
+    <hyperlink ref="B37" r:id="rId5" xr:uid="{7BD0849B-EAEF-4D29-A4DF-E23E625CB1B5}"/>
+    <hyperlink ref="B38" r:id="rId6" xr:uid="{52C54D76-8DAD-428C-8DCA-130AFC1359E2}"/>
+    <hyperlink ref="B39" r:id="rId7" xr:uid="{3E7BCDE4-3EF3-4790-9B7B-D80E866F20B5}"/>
+    <hyperlink ref="B40" r:id="rId8" xr:uid="{E50A0E1A-E971-44F6-83F6-BA4624EA666C}"/>
+    <hyperlink ref="B41" r:id="rId9" xr:uid="{89B9CF3E-0D0A-4CBE-9AB4-B25D1EECD886}"/>
+    <hyperlink ref="B42" r:id="rId10" xr:uid="{6C04F4A7-3C2B-41C7-B005-7D0E1B057FBC}"/>
+    <hyperlink ref="B43" r:id="rId11" xr:uid="{21CDBD6C-8B5A-4329-9DFE-92C4606CF12E}"/>
+    <hyperlink ref="B46" r:id="rId12" xr:uid="{86CB2015-40D5-472C-9D40-F617716C0826}"/>
+    <hyperlink ref="B49" r:id="rId13" xr:uid="{4E46CFE9-B9E5-47F8-A850-7E9B8744784D}"/>
+    <hyperlink ref="B52" r:id="rId14" xr:uid="{342C8D74-D854-4143-A819-DE5242EE3860}"/>
+    <hyperlink ref="B61" r:id="rId15" xr:uid="{18C2A14C-1340-423A-A5EC-27CB262E7BF0}"/>
+    <hyperlink ref="B65" r:id="rId16" xr:uid="{9C27863D-98BE-4CE0-A688-D0300196FAEB}"/>
+    <hyperlink ref="B66" r:id="rId17" xr:uid="{A2ADF90A-238F-40E0-B0FA-1C07B5DE08F1}"/>
+    <hyperlink ref="B69" r:id="rId18" xr:uid="{A932C131-8C50-4F0E-B813-B71E1754A07A}"/>
+    <hyperlink ref="B71" r:id="rId19" xr:uid="{002B2CD2-DB61-46F6-B426-12C9D6369BF5}"/>
+    <hyperlink ref="B77" r:id="rId20" xr:uid="{5C71235B-CA72-42C2-BB8E-6864E3E5B0F0}"/>
+    <hyperlink ref="B78" r:id="rId21" xr:uid="{DB356F88-89C0-43AA-9997-CAE085F54B4E}"/>
+    <hyperlink ref="B84" r:id="rId22" xr:uid="{023F7B1F-E508-401A-9884-1254BE62B946}"/>
+    <hyperlink ref="B82" r:id="rId23" xr:uid="{DD0272AB-8C3D-48F0-869D-4F404D3DAA77}"/>
+    <hyperlink ref="B81" r:id="rId24" xr:uid="{D5288DE5-D3D3-4390-9A13-0E735DC598FD}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>